--- a/.files/Period List.xlsx
+++ b/.files/Period List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UiPath\Packages\blacklineitemworking\1.0.1\content\.files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GM00061060\UiPath\BlacklineItemWorking\.files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC534C4B-639F-4212-8593-09A0C0220157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D1F9B-80DF-443C-8643-6D79C6927FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PeriodList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>SEP-22</t>
   </si>
@@ -137,120 +137,6 @@
     <t>AUG-22 ICU</t>
   </si>
   <si>
-    <t>ADJ-15</t>
-  </si>
-  <si>
-    <t>JUL-15</t>
-  </si>
-  <si>
-    <t>JUN-15</t>
-  </si>
-  <si>
-    <t>MAY-15</t>
-  </si>
-  <si>
-    <t>APR-15</t>
-  </si>
-  <si>
-    <t>MAR-15</t>
-  </si>
-  <si>
-    <t>FEB-15</t>
-  </si>
-  <si>
-    <t>JAN-15</t>
-  </si>
-  <si>
-    <t>DEC-15</t>
-  </si>
-  <si>
-    <t>NOV-15</t>
-  </si>
-  <si>
-    <t>OCT-15</t>
-  </si>
-  <si>
-    <t>SEP-15</t>
-  </si>
-  <si>
-    <t>AUG-15</t>
-  </si>
-  <si>
-    <t>JUL-16</t>
-  </si>
-  <si>
-    <t>JUN-16</t>
-  </si>
-  <si>
-    <t>MAY-16</t>
-  </si>
-  <si>
-    <t>APR-16</t>
-  </si>
-  <si>
-    <t>MAR-16</t>
-  </si>
-  <si>
-    <t>FEB-16</t>
-  </si>
-  <si>
-    <t>JAN-16</t>
-  </si>
-  <si>
-    <t>ADJ-16</t>
-  </si>
-  <si>
-    <t>DEC-16</t>
-  </si>
-  <si>
-    <t>NOV-16</t>
-  </si>
-  <si>
-    <t>OCT-16</t>
-  </si>
-  <si>
-    <t>SEP-16</t>
-  </si>
-  <si>
-    <t>AUG-16</t>
-  </si>
-  <si>
-    <t>JUL-17</t>
-  </si>
-  <si>
-    <t>JUN-17</t>
-  </si>
-  <si>
-    <t>MAY-17</t>
-  </si>
-  <si>
-    <t>APR-17</t>
-  </si>
-  <si>
-    <t>MAR-17</t>
-  </si>
-  <si>
-    <t>FEB-17</t>
-  </si>
-  <si>
-    <t>JAN-17</t>
-  </si>
-  <si>
-    <t>DEC-17</t>
-  </si>
-  <si>
-    <t>NOV-17</t>
-  </si>
-  <si>
-    <t>OCT-17</t>
-  </si>
-  <si>
-    <t>SEP-17</t>
-  </si>
-  <si>
-    <t>AUG-17</t>
-  </si>
-  <si>
     <t>JUL-19</t>
   </si>
   <si>
@@ -434,16 +320,13 @@
     <t>FEB-18</t>
   </si>
   <si>
-    <t>45679</t>
-  </si>
-  <si>
-    <t>45710</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>JAN-22</t>
+  </si>
+  <si>
+    <t>FEB-22</t>
   </si>
 </sst>
 </file>
@@ -521,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54ACD937-A2D5-4D26-B2A8-94D02E9D8C25}" name="PeriodList" displayName="PeriodList" ref="A1:C131" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54ACD937-A2D5-4D26-B2A8-94D02E9D8C25}" name="PeriodList" displayName="PeriodList" ref="A1:C93" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5A58639C-9532-4430-9FAB-FDDFC2EB55AB}" name="Year" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{79908EC0-3675-427F-B3FA-0E54D043E5DA}" name="Period" dataDxfId="0"/>
@@ -794,25 +677,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
@@ -820,1432 +703,1014 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>2018</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>2018</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>2018</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>2018</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>2018</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>2018</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>2018</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>2018</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>2018</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>2018</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>2018</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>2020</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>2020</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>2020</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>2020</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>2021</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>2021</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>2021</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>2021</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>2021</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>68</v>
+        <v>2021</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>2021</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>2021</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>2021</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>2021</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>114</v>
+        <v>2021</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>2021</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>2022</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>117</v>
+        <v>2022</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>118</v>
+        <v>2022</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>119</v>
+        <v>2022</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>2022</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>121</v>
+        <v>2022</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>2022</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>123</v>
+        <v>2022</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>2021</v>
+        <v>22</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>2021</v>
+        <v>22</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>2021</v>
+        <v>22</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>2021</v>
+        <v>22</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>2021</v>
+        <v>22</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C125" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2259,6 +1724,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b78b3fc-f09d-4cba-84d6-422834d4c347">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C71C7B27815D3449A08106381C0287D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b0d188d8626fa7870642b4e4b911241">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b78b3fc-f09d-4cba-84d6-422834d4c347" xmlns:ns3="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f3aa84e18711634fa823cce7d22f212" ns2:_="" ns3:_="">
     <xsd:import namespace="6b78b3fc-f09d-4cba-84d6-422834d4c347"/>
@@ -2459,27 +1944,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b78b3fc-f09d-4cba-84d6-422834d4c347">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD29FEE-6364-47B9-B117-D353899881FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b78b3fc-f09d-4cba-84d6-422834d4c347"/>
+    <ds:schemaRef ds:uri="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A101AC1E-457B-49E2-B363-EE3613EFE697}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{445BCF42-B457-49C6-9C20-3CB9285D6F9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2496,23 +1980,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD29FEE-6364-47B9-B117-D353899881FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b78b3fc-f09d-4cba-84d6-422834d4c347"/>
-    <ds:schemaRef ds:uri="8ec9baa3-afa4-4ac0-b584-a71bf9c0ed20"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A101AC1E-457B-49E2-B363-EE3613EFE697}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>